--- a/08_Quality_Checker/08a_Trace_Quality_Checker/Results/results_RQ1/BPMN-Designer/Hallucination/Hallucination-HD-GPT4o.xlsx
+++ b/08_Quality_Checker/08a_Trace_Quality_Checker/Results/results_RQ1/BPMN-Designer/Hallucination/Hallucination-HD-GPT4o.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\BP-MASTER-LLM-ICSA\08_Trace_Quality_Checker\Results\results_RQ1\BPMN-Designer\Hallucination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\BP-MASTER-LLM-ICSA\08_Quality_Checker\08a_Trace_Quality_Checker\Results\results_RQ1\BPMN-Designer\Hallucination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D932E53-1076-4E14-91E4-00A68F1FD09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B2C7E3-9BA5-4C2B-9719-046255734177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First Word" sheetId="1" r:id="rId1"/>
@@ -911,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -10706,9 +10706,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E283"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="E284" sqref="E284"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -15506,6 +15508,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E283">
+        <f>AVERAGE(E2:E282)</f>
+        <v>0.51521198494711673</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
